--- a/data/trans_camb/P54_A_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>58,65</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58,77</t>
+          <t>60,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>63,72</t>
+          <t>61,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>68,87</t>
+          <t>66,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>61,46</t>
+          <t>61,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,3</t>
+          <t>63,64</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,59; 66,33</t>
+          <t>39,82; 72,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,9; 65,25</t>
+          <t>40,62; 71,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,12; 70,41</t>
+          <t>51,41; 72,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,65; 74,04</t>
+          <t>55,88; 75,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>55,38; 66,63</t>
+          <t>49,71; 69,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,41; 68,89</t>
+          <t>52,18; 70,67</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>231,57%</t>
+          <t>278,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>232,03%</t>
+          <t>274,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>287,28%</t>
+          <t>261,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>310,48%</t>
+          <t>283,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>260,41%</t>
+          <t>269,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>272,46%</t>
+          <t>280,5%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>139,47; 336,68</t>
+          <t>84,95; 575,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>144,33; 316,51</t>
+          <t>104,26; 623,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>217,25; 393,05</t>
+          <t>165,44; 466,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>230,99; 412,58</t>
+          <t>173,21; 478,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>200,05; 328,25</t>
+          <t>149,32; 409,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>207,04; 343,12</t>
+          <t>149,5; 423,15</t>
         </is>
       </c>
     </row>
@@ -757,12 +757,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>54,43</t>
+          <t>55,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>64,98</t>
+          <t>60,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,17 +772,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66,09</t>
+          <t>64,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,84</t>
+          <t>58,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>65,5</t>
+          <t>62,67</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,98; 59,89</t>
+          <t>46,07; 63,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,22; 69,29</t>
+          <t>50,29; 66,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,75; 65,83</t>
+          <t>53,5; 67,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,3; 69,71</t>
+          <t>57,84; 70,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,6; 61,44</t>
+          <t>53,01; 63,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,26; 68,4</t>
+          <t>57,5; 66,97</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>337,98%</t>
+          <t>318,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>403,45%</t>
+          <t>344,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>279,39%</t>
+          <t>271,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>301,16%</t>
+          <t>287,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>304,61%</t>
+          <t>290,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>344,96%</t>
+          <t>310,05%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>245,58; 448,03</t>
+          <t>169,8; 468,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>300,25; 508,92</t>
+          <t>178,7; 504,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>225,39; 342,89</t>
+          <t>189,49; 375,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>242,18; 364,37</t>
+          <t>203,38; 393,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>254,1; 360,8</t>
+          <t>207,53; 373,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>294,05; 400,0</t>
+          <t>230,42; 403,04</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>55,13</t>
+          <t>56,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>59,53</t>
+          <t>60,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>56,11</t>
+          <t>56,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>65,18</t>
+          <t>66,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,65</t>
+          <t>56,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,49</t>
+          <t>63,3</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,45; 60,29</t>
+          <t>49,26; 63,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,61; 64,73</t>
+          <t>53,57; 66,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,42; 62,16</t>
+          <t>50,13; 63,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,01; 69,87</t>
+          <t>59,79; 71,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,1; 59,76</t>
+          <t>51,76; 61,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,38; 65,93</t>
+          <t>59,19; 67,95</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>705,14%</t>
+          <t>1128,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>761,43%</t>
+          <t>1194,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>522,26%</t>
+          <t>658,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>606,69%</t>
+          <t>764,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>602,65%</t>
+          <t>812,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>676,75%</t>
+          <t>904,63%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>409,54; 1086,08</t>
+          <t>557,79; 2477,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>454,68; 1131,36</t>
+          <t>590,4; 2611,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>360,2; 738,68</t>
+          <t>384,04; 1169,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>416,21; 854,24</t>
+          <t>449,31; 1294,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>456,46; 785,25</t>
+          <t>533,11; 1268,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>498,21; 862,38</t>
+          <t>584,88; 1407,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>55,46</t>
+          <t>55,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>62,39</t>
+          <t>69,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>60,07</t>
+          <t>61,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66,3</t>
+          <t>69,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,83</t>
+          <t>58,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>64,42</t>
+          <t>69,77</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>51,5; 59,73</t>
+          <t>49,31; 60,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>58,86; 65,66</t>
+          <t>64,27; 74,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56,72; 63,02</t>
+          <t>57,29; 66,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,6; 69,03</t>
+          <t>65,17; 73,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,18; 60,46</t>
+          <t>55,18; 61,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,12; 66,52</t>
+          <t>66,46; 73,04</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>367,03%</t>
+          <t>346,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>412,86%</t>
+          <t>438,73%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>320,17%</t>
+          <t>316,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>353,39%</t>
+          <t>357,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>341,38%</t>
+          <t>330,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>380,25%</t>
+          <t>395,01%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>299,06; 457,85</t>
+          <t>268,94; 437,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>333,61; 493,8</t>
+          <t>346,41; 554,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>271,81; 369,75</t>
+          <t>258,4; 386,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>303,16; 411,51</t>
+          <t>293,99; 430,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>296,89; 384,82</t>
+          <t>280,89; 384,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>335,54; 425,46</t>
+          <t>339,89; 455,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>55,83</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>62,25</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>60,36</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>66,31</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>58,16</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>64,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>51,75; 59,32</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>58,65; 65,59</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>57,17; 63,44</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>63,4; 68,94</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>55,77; 60,54</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>62,18; 66,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>369,19%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>411,6%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>322,19%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>353,97%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>343,54%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>380,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>298,83; 455,12</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>335,8; 498,64</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>277,26; 378,87</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>307,13; 415,34</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>302,35; 388,58</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>335,61; 429,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_2_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>60,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>61,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>66,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>61,23</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>63,64</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>61.4479519460281</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>59.82567736713087</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>61.41490007817977</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>66.45915214747858</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>61.49803389654125</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>63.55060698047089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>39,82; 72,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>40,62; 71,83</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>51,41; 72,32</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>55,88; 75,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>49,71; 69,16</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>52,18; 70,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>39.71800414882788</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>40.3683933849164</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>50.10887521109127</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>55.73363379549493</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>49.39285623265756</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>51.91530120583252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>278,86%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>274,49%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>261,26%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>283,44%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>269,9%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>280,5%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>72.3474584190761</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>71.63022846152974</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>71.41671374468585</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>75.34786215358474</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>69.24856611822506</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>70.50148410167921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>84,95; 575,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>104,26; 623,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>165,44; 466,38</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>173,21; 478,12</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>149,32; 409,88</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>149,5; 423,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>2.809031103958952</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>2.734870458942063</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>2.616921506019867</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2.831859765385745</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>2.710562292889806</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.801030668091198</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>55,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>60,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>61,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>64,96</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>58,67</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>62,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.9007451496506139</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1.038420315573872</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1.597595447070011</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1.727253059977956</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>1.460498870750934</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1.474837409208773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>46,07; 63,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>50,29; 66,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>53,5; 67,08</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>57,84; 70,46</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>53,01; 63,54</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>57,5; 66,97</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>5.788439391354633</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>6.262577576703533</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>4.45100788272063</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.775428807745758</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.109118091811116</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.211143584579422</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>318,74%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>344,52%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>271,12%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>287,27%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>290,24%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>310,05%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>56.0338080211111</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>60.58449323542349</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>61.85980877116856</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>65.12947650739548</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>58.97428819616617</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>62.78026972917089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>169,8; 468,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>178,7; 504,27</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>189,49; 375,8</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>203,38; 393,63</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>207,53; 373,51</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>230,42; 403,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>45.8294840901295</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>50.37569036475828</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>54.7910123918682</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>57.85263155950353</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>52.86753079667751</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>57.44967997645394</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>56,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>60,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>56,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>66,18</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>56,86</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>63,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>62.58151049579397</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>66.89898822025451</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>68.03823196306907</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>70.50942593243595</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>64.05463467504828</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>66.94295002789562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>49,26; 63,79</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>53,57; 66,55</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>50,13; 63,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>59,79; 71,7</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>51,76; 61,96</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>59,19; 67,95</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>3.191235211569354</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>3.450405655370183</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>2.735664925840444</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>2.880261482519698</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.917564119188368</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.105852871772413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1128,86%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1194,45%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>658,38%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>764,86%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>812,6%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>904,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1.717863412762397</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1.79908914348903</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1.929241090200053</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2.033565355566555</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>2.015204951164963</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>2.306403564287951</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>557,79; 2477,14</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>590,4; 2611,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>384,04; 1169,59</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>449,31; 1294,13</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>533,11; 1268,4</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>584,88; 1407,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>4.686330805918713</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>5.094120269417154</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.806187175109404</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>3.945653047509217</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.786510877016322</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.009818265420193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +928,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>55,07</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>69,7</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>61,92</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>69,94</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>58,44</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>69,77</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>56.38317880233905</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>60.11884488831814</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>57.19634387834517</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>66.2254696569926</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>56.69933925034517</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>63.27624838951038</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>49,31; 60,6</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>64,27; 74,75</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>57,29; 66,5</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>65,17; 73,94</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>55,18; 61,93</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>66,46; 73,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>48.2523992433492</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>53.47395201416163</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>50.52021641082172</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>59.89241744335943</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>51.12495578462517</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>59.15099374247652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>346,66%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>438,73%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>316,25%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>357,24%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>330,86%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>395,01%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>63.84473131804308</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>66.6024228997598</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>63.72555860737326</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>71.71099219817027</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>61.43204302652971</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>67.99248877779125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>268,94; 437,34</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>346,41; 554,93</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>258,4; 386,3</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>293,99; 430,12</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>280,89; 384,52</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>339,89; 455,34</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>11.18204908087968</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>11.92291546001088</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>6.610069258800255</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>7.653547612420592</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>8.102488577207852</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>9.042346640423213</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>55,83</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>62,25</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>60,36</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>66,31</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>58,16</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>64,35</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>5.612902178807246</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>5.858287265242295</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>3.858528001281767</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>4.503861628785288</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>5.230289475291357</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>5.86103567586391</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>51,75; 59,32</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>58,65; 65,59</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>57,17; 63,44</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>63,4; 68,94</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>55,77; 60,54</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>62,18; 66,65</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>24.00731980700383</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>26.12228362709846</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>11.77379094123329</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>12.97700938380215</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>12.61908584196923</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>14.05255865734301</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>369,19%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>411,6%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>322,19%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>353,97%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>343,54%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>380,09%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>56.79789895601522</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>60.67732287646106</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>60.28492063624606</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>66.31331229481545</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>58.58469287651837</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>63.59451727768541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>298,83; 455,12</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>335,8; 498,64</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>277,26; 378,87</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>307,13; 415,34</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>302,35; 388,58</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>335,61; 429,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>49.91895640132483</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>54.92744180784119</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>55.63728125805111</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>62.40313999213956</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>54.98293487681013</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>59.91586829123118</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>61.65218479845006</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>65.13304956295899</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>64.96982992019942</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>69.91152828443603</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>62.05211948653677</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>66.72287459207855</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>4.078137640555159</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>4.356683590395523</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>3.417399493199697</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>3.75913375081134</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>3.686713090379857</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>4.001979490072632</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>2.610248458170329</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>2.8008514772002</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>2.673449171076002</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>2.963392148002249</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>2.888461339272187</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>3.188184895753378</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>5.758163591294265</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>6.125674588719881</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>4.441658551317177</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>4.749543102911333</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>4.55218194389001</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>4.869495499354074</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
